--- a/VerdiRT7_RX64Mピンアサイン.xlsx
+++ b/VerdiRT7_RX64Mピンアサイン.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="23250" windowHeight="13170"/>
@@ -25,8 +25,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7784,11 +7784,626 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直線コネクタ 167"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="24060150"/>
+          <a:ext cx="4029075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="直線コネクタ 168"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="495300" y="24060150"/>
+          <a:ext cx="4133850" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="直線矢印コネクタ 169"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2305051" y="21221700"/>
+          <a:ext cx="66674" cy="2371725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直線コネクタ 170"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23660100"/>
+          <a:ext cx="4029075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直線コネクタ 175"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="533400" y="23660100"/>
+          <a:ext cx="4133850" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="角丸四角形 176"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171574" y="20478749"/>
+          <a:ext cx="838201" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1517916" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="テキスト ボックス 177"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="20507325"/>
+          <a:ext cx="1517916" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モーターコントロール </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="角丸四角形 178"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171574" y="20774024"/>
+          <a:ext cx="838201" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1517916" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="テキスト ボックス 179"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="20869275"/>
+          <a:ext cx="1517916" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モーターコントロール </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="角丸四角形 180"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362824" y="14335124"/>
+          <a:ext cx="838201" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1179618" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="テキスト ボックス 181"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="21945600"/>
+          <a:ext cx="1179618" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2018/08/25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>修正</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7862,6 +8477,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7896,6 +8512,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8071,22 +8688,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="V88" sqref="V88"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="N135" sqref="N135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8100,12 +8717,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8113,12 +8730,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerdiRT7_RX64Mピンアサイン.xlsx
+++ b/VerdiRT7_RX64Mピンアサイン.xlsx
@@ -8695,7 +8695,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="N135" sqref="N135"/>
+      <selection activeCell="O126" sqref="O126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
